--- a/COVID_19_9880/otchet/downloads_exel/Отчет о проведении исследований на COVID19 01.08.2021 - 16.08.2021 (4).xlsx
+++ b/COVID_19_9880/otchet/downloads_exel/Отчет о проведении исследований на COVID19 01.08.2021 - 16.08.2021 (4).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>ФЕДЕРАЛЬНАЯ СЛУЖБА ПО НАДЗОРУ В СФЕРЕ ЗАЩИТЫ ПРАВ ПОТРЕБИТЕЛЕЙ И БЛАГОПОЛУЧИЯ ЧЕЛОВЕКА</t>
   </si>
@@ -75,10 +75,10 @@
     <t>SARS-CoV-2 - подтверждено:</t>
   </si>
   <si>
-    <t>03.09.2021 09:41</t>
-  </si>
-  <si>
-    <t>Учреждение, направившее материал: ПАО "Сбербанк" (Ветеранов 114 корпус 1)</t>
+    <t>19.11.2021 12:05</t>
+  </si>
+  <si>
+    <t>Учреждение, направившее материал: АО "АТОМПРОЕКТ"</t>
   </si>
   <si>
     <t>SARS-CoV-2 - подтверждено</t>
@@ -108,103 +108,151 @@
     <t>1</t>
   </si>
   <si>
+    <t>04.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сидоров Геннадий Петрович </t>
+  </si>
+  <si>
+    <t>23.12.1973</t>
+  </si>
+  <si>
+    <t>Савушкина ул. д.24кв.89</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кадров Андрей Юрьевич </t>
+  </si>
+  <si>
+    <t>04.05.1973</t>
+  </si>
+  <si>
+    <t>Октябрьская ул. д.22кв.5</t>
+  </si>
+  <si>
+    <t>05.08.2021</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>02.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Задоркина Мария Владимировна </t>
+  </si>
+  <si>
+    <t>07.07.1983</t>
+  </si>
+  <si>
+    <t>Энтузиастов ул. д.40</t>
+  </si>
+  <si>
     <t>03.08.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">СаблинАнтител Роман Евгеньевич </t>
-  </si>
-  <si>
-    <t>11.11.1980</t>
-  </si>
-  <si>
-    <t>Мира ул. д.1кв.18</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>10.08.2021</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>11.08.2021</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>13.08.2021</t>
+    <t>12.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Громова Светлана Николаевна </t>
+  </si>
+  <si>
+    <t>07.08.1950</t>
+  </si>
+  <si>
+    <t>Косыгна ул. д.17кв.264</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t xml:space="preserve">Евстигнеева Елена Александровна </t>
+  </si>
+  <si>
+    <t>03.10.1955</t>
+  </si>
+  <si>
+    <t>21-я В.О. ул. д.16к4кв.41</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
+    <t xml:space="preserve">Калинина Любовь Михайловна </t>
+  </si>
+  <si>
+    <t>05.04.1955</t>
+  </si>
+  <si>
+    <t>Энтузиастов ул. д.22к2кв.190</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
+    <t xml:space="preserve">Шадурский  Антон Евгеньевич  </t>
+  </si>
+  <si>
+    <t>28.07.1985</t>
+  </si>
+  <si>
+    <t>Парковая  ул. д.16кв.4</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t xml:space="preserve">СаблинАнтител777 Роман Евгеньевич </t>
+    <t xml:space="preserve">Лисова Яна Владимировна </t>
+  </si>
+  <si>
+    <t>23.11.1993</t>
+  </si>
+  <si>
+    <t>Оптиков ул. д.35к1кв.473</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t xml:space="preserve">Райковский Дмитрий Игоревич </t>
+  </si>
+  <si>
+    <t>29.08.1993</t>
+  </si>
+  <si>
+    <t>Менделеева ул. д.20кв.132</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
+    <t xml:space="preserve">Шарапова Мария Владимировна </t>
+  </si>
+  <si>
+    <t>28.11.1995</t>
+  </si>
+  <si>
+    <t>Гжатская ул. д.22кв.119</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>04.08.2021</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Учреждение, направившее материал: Администрация Адмиралтейского района Санкт-Петербурга</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 1 </t>
-  </si>
-  <si>
-    <t>11.11.1111</t>
+    <t>31.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рублев Павел Алексеевич </t>
+  </si>
+  <si>
+    <t>06.06.1991</t>
+  </si>
+  <si>
+    <t>01.08.2021</t>
   </si>
 </sst>
 </file>
@@ -212,7 +260,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,79 +347,6 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
@@ -442,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,53 +487,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
-      <alignment wrapText="true" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -839,7 +769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CS54"/>
+  <dimension ref="A1:CS37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:CQ6"/>
@@ -2084,7 +2014,7 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7" t="n">
-        <v>23.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
@@ -2187,7 +2117,7 @@
       <c r="V14" s="10"/>
       <c r="W14" s="10"/>
       <c r="X14" s="10" t="n">
-        <v>23.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
@@ -3291,7 +3221,7 @@
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -3302,7 +3232,7 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
@@ -3336,7 +3266,7 @@
       <c r="AR25" s="15"/>
       <c r="AS25" s="15"/>
       <c r="AT25" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AU25" s="15"/>
       <c r="AV25" s="15"/>
@@ -3347,7 +3277,7 @@
       <c r="BA25" s="15"/>
       <c r="BB25" s="15"/>
       <c r="BC25" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="BD25" s="15"/>
       <c r="BE25" s="15"/>
@@ -3381,7 +3311,7 @@
       <c r="CG25" s="15"/>
       <c r="CH25" s="15"/>
       <c r="CI25" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="CJ25" s="15"/>
       <c r="CK25" s="15"/>
@@ -3394,13 +3324,13 @@
     </row>
     <row r="26" ht="15.0" customHeight="true">
       <c r="A26" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -3411,7 +3341,7 @@
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
@@ -3445,7 +3375,7 @@
       <c r="AR26" s="16"/>
       <c r="AS26" s="16"/>
       <c r="AT26" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AU26" s="16"/>
       <c r="AV26" s="16"/>
@@ -3456,7 +3386,7 @@
       <c r="BA26" s="16"/>
       <c r="BB26" s="16"/>
       <c r="BC26" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BD26" s="16"/>
       <c r="BE26" s="16"/>
@@ -3490,7 +3420,7 @@
       <c r="CG26" s="16"/>
       <c r="CH26" s="16"/>
       <c r="CI26" s="16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="CJ26" s="16"/>
       <c r="CK26" s="16"/>
@@ -3503,13 +3433,13 @@
     </row>
     <row r="27" ht="15.0" customHeight="true">
       <c r="A27" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -3520,7 +3450,7 @@
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
@@ -3554,7 +3484,7 @@
       <c r="AR27" s="17"/>
       <c r="AS27" s="17"/>
       <c r="AT27" s="17" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AU27" s="17"/>
       <c r="AV27" s="17"/>
@@ -3565,7 +3495,7 @@
       <c r="BA27" s="17"/>
       <c r="BB27" s="17"/>
       <c r="BC27" s="17" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="BD27" s="17"/>
       <c r="BE27" s="17"/>
@@ -3599,7 +3529,7 @@
       <c r="CG27" s="17"/>
       <c r="CH27" s="17"/>
       <c r="CI27" s="17" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="CJ27" s="17"/>
       <c r="CK27" s="17"/>
@@ -3612,13 +3542,13 @@
     </row>
     <row r="28" ht="15.0" customHeight="true">
       <c r="A28" s="18" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -3629,7 +3559,7 @@
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
@@ -3663,7 +3593,7 @@
       <c r="AR28" s="18"/>
       <c r="AS28" s="18"/>
       <c r="AT28" s="18" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AU28" s="18"/>
       <c r="AV28" s="18"/>
@@ -3674,7 +3604,7 @@
       <c r="BA28" s="18"/>
       <c r="BB28" s="18"/>
       <c r="BC28" s="18" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="BD28" s="18"/>
       <c r="BE28" s="18"/>
@@ -3708,7 +3638,7 @@
       <c r="CG28" s="18"/>
       <c r="CH28" s="18"/>
       <c r="CI28" s="18" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="CJ28" s="18"/>
       <c r="CK28" s="18"/>
@@ -3721,13 +3651,13 @@
     </row>
     <row r="29" ht="15.0" customHeight="true">
       <c r="A29" s="19" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
@@ -3738,7 +3668,7 @@
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
       <c r="N29" s="19" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
@@ -3772,7 +3702,7 @@
       <c r="AR29" s="19"/>
       <c r="AS29" s="19"/>
       <c r="AT29" s="19" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="AU29" s="19"/>
       <c r="AV29" s="19"/>
@@ -3783,7 +3713,7 @@
       <c r="BA29" s="19"/>
       <c r="BB29" s="19"/>
       <c r="BC29" s="19" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="BD29" s="19"/>
       <c r="BE29" s="19"/>
@@ -3817,7 +3747,7 @@
       <c r="CG29" s="19"/>
       <c r="CH29" s="19"/>
       <c r="CI29" s="19" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="CJ29" s="19"/>
       <c r="CK29" s="19"/>
@@ -3830,13 +3760,13 @@
     </row>
     <row r="30" ht="15.0" customHeight="true">
       <c r="A30" s="20" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
@@ -3847,7 +3777,7 @@
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
       <c r="N30" s="20" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="O30" s="20"/>
       <c r="P30" s="20"/>
@@ -3881,7 +3811,7 @@
       <c r="AR30" s="20"/>
       <c r="AS30" s="20"/>
       <c r="AT30" s="20" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="AU30" s="20"/>
       <c r="AV30" s="20"/>
@@ -3892,7 +3822,7 @@
       <c r="BA30" s="20"/>
       <c r="BB30" s="20"/>
       <c r="BC30" s="20" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="BD30" s="20"/>
       <c r="BE30" s="20"/>
@@ -3926,7 +3856,7 @@
       <c r="CG30" s="20"/>
       <c r="CH30" s="20"/>
       <c r="CI30" s="20" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="CJ30" s="20"/>
       <c r="CK30" s="20"/>
@@ -3939,13 +3869,13 @@
     </row>
     <row r="31" ht="15.0" customHeight="true">
       <c r="A31" s="21" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
@@ -3956,7 +3886,7 @@
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
       <c r="N31" s="21" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
@@ -3990,7 +3920,7 @@
       <c r="AR31" s="21"/>
       <c r="AS31" s="21"/>
       <c r="AT31" s="21" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="AU31" s="21"/>
       <c r="AV31" s="21"/>
@@ -4001,7 +3931,7 @@
       <c r="BA31" s="21"/>
       <c r="BB31" s="21"/>
       <c r="BC31" s="21" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="BD31" s="21"/>
       <c r="BE31" s="21"/>
@@ -4035,7 +3965,7 @@
       <c r="CG31" s="21"/>
       <c r="CH31" s="21"/>
       <c r="CI31" s="21" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="CJ31" s="21"/>
       <c r="CK31" s="21"/>
@@ -4048,13 +3978,13 @@
     </row>
     <row r="32" ht="15.0" customHeight="true">
       <c r="A32" s="22" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
@@ -4065,7 +3995,7 @@
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
@@ -4099,7 +4029,7 @@
       <c r="AR32" s="22"/>
       <c r="AS32" s="22"/>
       <c r="AT32" s="22" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AU32" s="22"/>
       <c r="AV32" s="22"/>
@@ -4110,7 +4040,7 @@
       <c r="BA32" s="22"/>
       <c r="BB32" s="22"/>
       <c r="BC32" s="22" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="BD32" s="22"/>
       <c r="BE32" s="22"/>
@@ -4144,7 +4074,7 @@
       <c r="CG32" s="22"/>
       <c r="CH32" s="22"/>
       <c r="CI32" s="22" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="CJ32" s="22"/>
       <c r="CK32" s="22"/>
@@ -4157,13 +4087,13 @@
     </row>
     <row r="33" ht="15.0" customHeight="true">
       <c r="A33" s="23" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
       <c r="E33" s="23" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
@@ -4174,7 +4104,7 @@
       <c r="L33" s="23"/>
       <c r="M33" s="23"/>
       <c r="N33" s="23" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="O33" s="23"/>
       <c r="P33" s="23"/>
@@ -4208,7 +4138,7 @@
       <c r="AR33" s="23"/>
       <c r="AS33" s="23"/>
       <c r="AT33" s="23" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="AU33" s="23"/>
       <c r="AV33" s="23"/>
@@ -4219,7 +4149,7 @@
       <c r="BA33" s="23"/>
       <c r="BB33" s="23"/>
       <c r="BC33" s="23" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="BD33" s="23"/>
       <c r="BE33" s="23"/>
@@ -4253,7 +4183,7 @@
       <c r="CG33" s="23"/>
       <c r="CH33" s="23"/>
       <c r="CI33" s="23" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="CJ33" s="23"/>
       <c r="CK33" s="23"/>
@@ -4266,13 +4196,13 @@
     </row>
     <row r="34" ht="15.0" customHeight="true">
       <c r="A34" s="24" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
@@ -4283,7 +4213,7 @@
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
       <c r="N34" s="24" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
@@ -4317,7 +4247,7 @@
       <c r="AR34" s="24"/>
       <c r="AS34" s="24"/>
       <c r="AT34" s="24" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="AU34" s="24"/>
       <c r="AV34" s="24"/>
@@ -4328,7 +4258,7 @@
       <c r="BA34" s="24"/>
       <c r="BB34" s="24"/>
       <c r="BC34" s="24" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="BD34" s="24"/>
       <c r="BE34" s="24"/>
@@ -4362,7 +4292,7 @@
       <c r="CG34" s="24"/>
       <c r="CH34" s="24"/>
       <c r="CI34" s="24" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="CJ34" s="24"/>
       <c r="CK34" s="24"/>
@@ -4373,2110 +4303,299 @@
       <c r="CP34" s="24"/>
       <c r="CQ34" s="24"/>
     </row>
-    <row r="35" ht="15.0" customHeight="true">
-      <c r="A35" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="25"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="25"/>
-      <c r="AC35" s="25"/>
-      <c r="AD35" s="25"/>
-      <c r="AE35" s="25"/>
-      <c r="AF35" s="25"/>
-      <c r="AG35" s="25"/>
-      <c r="AH35" s="25"/>
-      <c r="AI35" s="25"/>
-      <c r="AJ35" s="25"/>
-      <c r="AK35" s="25"/>
-      <c r="AL35" s="25"/>
-      <c r="AM35" s="25"/>
-      <c r="AN35" s="25"/>
-      <c r="AO35" s="25"/>
-      <c r="AP35" s="25"/>
-      <c r="AQ35" s="25"/>
-      <c r="AR35" s="25"/>
-      <c r="AS35" s="25"/>
-      <c r="AT35" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU35" s="25"/>
-      <c r="AV35" s="25"/>
-      <c r="AW35" s="25"/>
-      <c r="AX35" s="25"/>
-      <c r="AY35" s="25"/>
-      <c r="AZ35" s="25"/>
-      <c r="BA35" s="25"/>
-      <c r="BB35" s="25"/>
-      <c r="BC35" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD35" s="25"/>
-      <c r="BE35" s="25"/>
-      <c r="BF35" s="25"/>
-      <c r="BG35" s="25"/>
-      <c r="BH35" s="25"/>
-      <c r="BI35" s="25"/>
-      <c r="BJ35" s="25"/>
-      <c r="BK35" s="25"/>
-      <c r="BL35" s="25"/>
-      <c r="BM35" s="25"/>
-      <c r="BN35" s="25"/>
-      <c r="BO35" s="25"/>
-      <c r="BP35" s="25"/>
-      <c r="BQ35" s="25"/>
-      <c r="BR35" s="25"/>
-      <c r="BS35" s="25"/>
-      <c r="BT35" s="25"/>
-      <c r="BU35" s="25"/>
-      <c r="BV35" s="25"/>
-      <c r="BW35" s="25"/>
-      <c r="BX35" s="25"/>
-      <c r="BY35" s="25"/>
-      <c r="BZ35" s="25"/>
-      <c r="CA35" s="25"/>
-      <c r="CB35" s="25"/>
-      <c r="CC35" s="25"/>
-      <c r="CD35" s="25"/>
-      <c r="CE35" s="25"/>
-      <c r="CF35" s="25"/>
-      <c r="CG35" s="25"/>
-      <c r="CH35" s="25"/>
-      <c r="CI35" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="CJ35" s="25"/>
-      <c r="CK35" s="25"/>
-      <c r="CL35" s="25"/>
-      <c r="CM35" s="25"/>
-      <c r="CN35" s="25"/>
-      <c r="CO35" s="25"/>
-      <c r="CP35" s="25"/>
-      <c r="CQ35" s="25"/>
+    <row r="35">
+      <c r="A35" s="25"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35"/>
+      <c r="AN35"/>
+      <c r="AO35"/>
+      <c r="AP35"/>
+      <c r="AQ35"/>
+      <c r="AR35"/>
+      <c r="AS35"/>
+      <c r="AT35"/>
+      <c r="AU35"/>
+      <c r="AV35"/>
+      <c r="AW35"/>
+      <c r="AX35"/>
+      <c r="AY35"/>
+      <c r="AZ35"/>
+      <c r="BA35"/>
+      <c r="BB35"/>
+      <c r="BC35"/>
+      <c r="BD35"/>
+      <c r="BE35"/>
+      <c r="BF35"/>
+      <c r="BG35"/>
+      <c r="BH35"/>
+      <c r="BI35"/>
+      <c r="BJ35"/>
+      <c r="BK35"/>
+      <c r="BL35"/>
+      <c r="BM35"/>
+      <c r="BN35"/>
+      <c r="BO35"/>
+      <c r="BP35"/>
+      <c r="BQ35"/>
+      <c r="BR35"/>
+      <c r="BS35"/>
+      <c r="BT35"/>
+      <c r="BU35"/>
+      <c r="BV35"/>
+      <c r="BW35"/>
+      <c r="BX35"/>
+      <c r="BY35"/>
+      <c r="BZ35"/>
+      <c r="CA35"/>
+      <c r="CB35"/>
+      <c r="CC35"/>
+      <c r="CD35"/>
+      <c r="CE35"/>
+      <c r="CF35"/>
+      <c r="CG35"/>
+      <c r="CH35"/>
+      <c r="CI35"/>
+      <c r="CJ35"/>
+      <c r="CK35"/>
+      <c r="CL35"/>
+      <c r="CM35"/>
+      <c r="CN35"/>
+      <c r="CO35"/>
+      <c r="CP35"/>
+      <c r="CQ35"/>
     </row>
-    <row r="36" ht="15.0" customHeight="true">
-      <c r="A36" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="26"/>
-      <c r="AM36" s="26"/>
-      <c r="AN36" s="26"/>
-      <c r="AO36" s="26"/>
-      <c r="AP36" s="26"/>
-      <c r="AQ36" s="26"/>
-      <c r="AR36" s="26"/>
-      <c r="AS36" s="26"/>
-      <c r="AT36" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU36" s="26"/>
-      <c r="AV36" s="26"/>
-      <c r="AW36" s="26"/>
-      <c r="AX36" s="26"/>
-      <c r="AY36" s="26"/>
-      <c r="AZ36" s="26"/>
-      <c r="BA36" s="26"/>
-      <c r="BB36" s="26"/>
-      <c r="BC36" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD36" s="26"/>
-      <c r="BE36" s="26"/>
-      <c r="BF36" s="26"/>
-      <c r="BG36" s="26"/>
-      <c r="BH36" s="26"/>
-      <c r="BI36" s="26"/>
-      <c r="BJ36" s="26"/>
-      <c r="BK36" s="26"/>
-      <c r="BL36" s="26"/>
-      <c r="BM36" s="26"/>
-      <c r="BN36" s="26"/>
-      <c r="BO36" s="26"/>
-      <c r="BP36" s="26"/>
-      <c r="BQ36" s="26"/>
-      <c r="BR36" s="26"/>
-      <c r="BS36" s="26"/>
-      <c r="BT36" s="26"/>
-      <c r="BU36" s="26"/>
-      <c r="BV36" s="26"/>
-      <c r="BW36" s="26"/>
-      <c r="BX36" s="26"/>
-      <c r="BY36" s="26"/>
-      <c r="BZ36" s="26"/>
-      <c r="CA36" s="26"/>
-      <c r="CB36" s="26"/>
-      <c r="CC36" s="26"/>
-      <c r="CD36" s="26"/>
-      <c r="CE36" s="26"/>
-      <c r="CF36" s="26"/>
-      <c r="CG36" s="26"/>
-      <c r="CH36" s="26"/>
-      <c r="CI36" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="CJ36" s="26"/>
-      <c r="CK36" s="26"/>
-      <c r="CL36" s="26"/>
-      <c r="CM36" s="26"/>
-      <c r="CN36" s="26"/>
-      <c r="CO36" s="26"/>
-      <c r="CP36" s="26"/>
-      <c r="CQ36" s="26"/>
+    <row r="36">
+      <c r="A36" s="26"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36"/>
+      <c r="AR36"/>
+      <c r="AS36"/>
+      <c r="AT36"/>
+      <c r="AU36"/>
+      <c r="AV36"/>
+      <c r="AW36"/>
+      <c r="AX36"/>
+      <c r="AY36"/>
+      <c r="AZ36"/>
+      <c r="BA36"/>
+      <c r="BB36"/>
+      <c r="BC36"/>
+      <c r="BD36"/>
+      <c r="BE36"/>
+      <c r="BF36"/>
+      <c r="BG36"/>
+      <c r="BH36"/>
+      <c r="BI36"/>
+      <c r="BJ36"/>
+      <c r="BK36"/>
+      <c r="BL36"/>
+      <c r="BM36"/>
+      <c r="BN36"/>
+      <c r="BO36"/>
+      <c r="BP36"/>
+      <c r="BQ36"/>
+      <c r="BR36"/>
+      <c r="BS36"/>
+      <c r="BT36"/>
+      <c r="BU36"/>
+      <c r="BV36"/>
+      <c r="BW36"/>
+      <c r="BX36"/>
+      <c r="BY36"/>
+      <c r="BZ36"/>
+      <c r="CA36"/>
+      <c r="CB36"/>
+      <c r="CC36"/>
+      <c r="CD36"/>
+      <c r="CE36"/>
+      <c r="CF36"/>
+      <c r="CG36"/>
+      <c r="CH36"/>
+      <c r="CI36"/>
+      <c r="CJ36"/>
+      <c r="CK36"/>
+      <c r="CL36"/>
+      <c r="CM36"/>
+      <c r="CN36"/>
+      <c r="CO36"/>
+      <c r="CP36"/>
+      <c r="CQ36"/>
     </row>
-    <row r="37" ht="15.0" customHeight="true">
-      <c r="A37" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="27"/>
-      <c r="AE37" s="27"/>
-      <c r="AF37" s="27"/>
-      <c r="AG37" s="27"/>
-      <c r="AH37" s="27"/>
-      <c r="AI37" s="27"/>
-      <c r="AJ37" s="27"/>
-      <c r="AK37" s="27"/>
-      <c r="AL37" s="27"/>
-      <c r="AM37" s="27"/>
-      <c r="AN37" s="27"/>
-      <c r="AO37" s="27"/>
-      <c r="AP37" s="27"/>
-      <c r="AQ37" s="27"/>
-      <c r="AR37" s="27"/>
-      <c r="AS37" s="27"/>
-      <c r="AT37" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU37" s="27"/>
-      <c r="AV37" s="27"/>
-      <c r="AW37" s="27"/>
-      <c r="AX37" s="27"/>
-      <c r="AY37" s="27"/>
-      <c r="AZ37" s="27"/>
-      <c r="BA37" s="27"/>
-      <c r="BB37" s="27"/>
-      <c r="BC37" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD37" s="27"/>
-      <c r="BE37" s="27"/>
-      <c r="BF37" s="27"/>
-      <c r="BG37" s="27"/>
-      <c r="BH37" s="27"/>
-      <c r="BI37" s="27"/>
-      <c r="BJ37" s="27"/>
-      <c r="BK37" s="27"/>
-      <c r="BL37" s="27"/>
-      <c r="BM37" s="27"/>
-      <c r="BN37" s="27"/>
-      <c r="BO37" s="27"/>
-      <c r="BP37" s="27"/>
-      <c r="BQ37" s="27"/>
-      <c r="BR37" s="27"/>
-      <c r="BS37" s="27"/>
-      <c r="BT37" s="27"/>
-      <c r="BU37" s="27"/>
-      <c r="BV37" s="27"/>
-      <c r="BW37" s="27"/>
-      <c r="BX37" s="27"/>
-      <c r="BY37" s="27"/>
-      <c r="BZ37" s="27"/>
-      <c r="CA37" s="27"/>
-      <c r="CB37" s="27"/>
-      <c r="CC37" s="27"/>
-      <c r="CD37" s="27"/>
-      <c r="CE37" s="27"/>
-      <c r="CF37" s="27"/>
-      <c r="CG37" s="27"/>
-      <c r="CH37" s="27"/>
-      <c r="CI37" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="CJ37" s="27"/>
-      <c r="CK37" s="27"/>
-      <c r="CL37" s="27"/>
-      <c r="CM37" s="27"/>
-      <c r="CN37" s="27"/>
-      <c r="CO37" s="27"/>
-      <c r="CP37" s="27"/>
-      <c r="CQ37" s="27"/>
-    </row>
-    <row r="38" ht="15.0" customHeight="true">
-      <c r="A38" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="28"/>
-      <c r="AE38" s="28"/>
-      <c r="AF38" s="28"/>
-      <c r="AG38" s="28"/>
-      <c r="AH38" s="28"/>
-      <c r="AI38" s="28"/>
-      <c r="AJ38" s="28"/>
-      <c r="AK38" s="28"/>
-      <c r="AL38" s="28"/>
-      <c r="AM38" s="28"/>
-      <c r="AN38" s="28"/>
-      <c r="AO38" s="28"/>
-      <c r="AP38" s="28"/>
-      <c r="AQ38" s="28"/>
-      <c r="AR38" s="28"/>
-      <c r="AS38" s="28"/>
-      <c r="AT38" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU38" s="28"/>
-      <c r="AV38" s="28"/>
-      <c r="AW38" s="28"/>
-      <c r="AX38" s="28"/>
-      <c r="AY38" s="28"/>
-      <c r="AZ38" s="28"/>
-      <c r="BA38" s="28"/>
-      <c r="BB38" s="28"/>
-      <c r="BC38" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD38" s="28"/>
-      <c r="BE38" s="28"/>
-      <c r="BF38" s="28"/>
-      <c r="BG38" s="28"/>
-      <c r="BH38" s="28"/>
-      <c r="BI38" s="28"/>
-      <c r="BJ38" s="28"/>
-      <c r="BK38" s="28"/>
-      <c r="BL38" s="28"/>
-      <c r="BM38" s="28"/>
-      <c r="BN38" s="28"/>
-      <c r="BO38" s="28"/>
-      <c r="BP38" s="28"/>
-      <c r="BQ38" s="28"/>
-      <c r="BR38" s="28"/>
-      <c r="BS38" s="28"/>
-      <c r="BT38" s="28"/>
-      <c r="BU38" s="28"/>
-      <c r="BV38" s="28"/>
-      <c r="BW38" s="28"/>
-      <c r="BX38" s="28"/>
-      <c r="BY38" s="28"/>
-      <c r="BZ38" s="28"/>
-      <c r="CA38" s="28"/>
-      <c r="CB38" s="28"/>
-      <c r="CC38" s="28"/>
-      <c r="CD38" s="28"/>
-      <c r="CE38" s="28"/>
-      <c r="CF38" s="28"/>
-      <c r="CG38" s="28"/>
-      <c r="CH38" s="28"/>
-      <c r="CI38" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="CJ38" s="28"/>
-      <c r="CK38" s="28"/>
-      <c r="CL38" s="28"/>
-      <c r="CM38" s="28"/>
-      <c r="CN38" s="28"/>
-      <c r="CO38" s="28"/>
-      <c r="CP38" s="28"/>
-      <c r="CQ38" s="28"/>
-    </row>
-    <row r="39" ht="15.0" customHeight="true">
-      <c r="A39" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="29"/>
-      <c r="AF39" s="29"/>
-      <c r="AG39" s="29"/>
-      <c r="AH39" s="29"/>
-      <c r="AI39" s="29"/>
-      <c r="AJ39" s="29"/>
-      <c r="AK39" s="29"/>
-      <c r="AL39" s="29"/>
-      <c r="AM39" s="29"/>
-      <c r="AN39" s="29"/>
-      <c r="AO39" s="29"/>
-      <c r="AP39" s="29"/>
-      <c r="AQ39" s="29"/>
-      <c r="AR39" s="29"/>
-      <c r="AS39" s="29"/>
-      <c r="AT39" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU39" s="29"/>
-      <c r="AV39" s="29"/>
-      <c r="AW39" s="29"/>
-      <c r="AX39" s="29"/>
-      <c r="AY39" s="29"/>
-      <c r="AZ39" s="29"/>
-      <c r="BA39" s="29"/>
-      <c r="BB39" s="29"/>
-      <c r="BC39" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD39" s="29"/>
-      <c r="BE39" s="29"/>
-      <c r="BF39" s="29"/>
-      <c r="BG39" s="29"/>
-      <c r="BH39" s="29"/>
-      <c r="BI39" s="29"/>
-      <c r="BJ39" s="29"/>
-      <c r="BK39" s="29"/>
-      <c r="BL39" s="29"/>
-      <c r="BM39" s="29"/>
-      <c r="BN39" s="29"/>
-      <c r="BO39" s="29"/>
-      <c r="BP39" s="29"/>
-      <c r="BQ39" s="29"/>
-      <c r="BR39" s="29"/>
-      <c r="BS39" s="29"/>
-      <c r="BT39" s="29"/>
-      <c r="BU39" s="29"/>
-      <c r="BV39" s="29"/>
-      <c r="BW39" s="29"/>
-      <c r="BX39" s="29"/>
-      <c r="BY39" s="29"/>
-      <c r="BZ39" s="29"/>
-      <c r="CA39" s="29"/>
-      <c r="CB39" s="29"/>
-      <c r="CC39" s="29"/>
-      <c r="CD39" s="29"/>
-      <c r="CE39" s="29"/>
-      <c r="CF39" s="29"/>
-      <c r="CG39" s="29"/>
-      <c r="CH39" s="29"/>
-      <c r="CI39" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="CJ39" s="29"/>
-      <c r="CK39" s="29"/>
-      <c r="CL39" s="29"/>
-      <c r="CM39" s="29"/>
-      <c r="CN39" s="29"/>
-      <c r="CO39" s="29"/>
-      <c r="CP39" s="29"/>
-      <c r="CQ39" s="29"/>
-    </row>
-    <row r="40" ht="15.0" customHeight="true">
-      <c r="A40" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
-      <c r="AD40" s="30"/>
-      <c r="AE40" s="30"/>
-      <c r="AF40" s="30"/>
-      <c r="AG40" s="30"/>
-      <c r="AH40" s="30"/>
-      <c r="AI40" s="30"/>
-      <c r="AJ40" s="30"/>
-      <c r="AK40" s="30"/>
-      <c r="AL40" s="30"/>
-      <c r="AM40" s="30"/>
-      <c r="AN40" s="30"/>
-      <c r="AO40" s="30"/>
-      <c r="AP40" s="30"/>
-      <c r="AQ40" s="30"/>
-      <c r="AR40" s="30"/>
-      <c r="AS40" s="30"/>
-      <c r="AT40" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU40" s="30"/>
-      <c r="AV40" s="30"/>
-      <c r="AW40" s="30"/>
-      <c r="AX40" s="30"/>
-      <c r="AY40" s="30"/>
-      <c r="AZ40" s="30"/>
-      <c r="BA40" s="30"/>
-      <c r="BB40" s="30"/>
-      <c r="BC40" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD40" s="30"/>
-      <c r="BE40" s="30"/>
-      <c r="BF40" s="30"/>
-      <c r="BG40" s="30"/>
-      <c r="BH40" s="30"/>
-      <c r="BI40" s="30"/>
-      <c r="BJ40" s="30"/>
-      <c r="BK40" s="30"/>
-      <c r="BL40" s="30"/>
-      <c r="BM40" s="30"/>
-      <c r="BN40" s="30"/>
-      <c r="BO40" s="30"/>
-      <c r="BP40" s="30"/>
-      <c r="BQ40" s="30"/>
-      <c r="BR40" s="30"/>
-      <c r="BS40" s="30"/>
-      <c r="BT40" s="30"/>
-      <c r="BU40" s="30"/>
-      <c r="BV40" s="30"/>
-      <c r="BW40" s="30"/>
-      <c r="BX40" s="30"/>
-      <c r="BY40" s="30"/>
-      <c r="BZ40" s="30"/>
-      <c r="CA40" s="30"/>
-      <c r="CB40" s="30"/>
-      <c r="CC40" s="30"/>
-      <c r="CD40" s="30"/>
-      <c r="CE40" s="30"/>
-      <c r="CF40" s="30"/>
-      <c r="CG40" s="30"/>
-      <c r="CH40" s="30"/>
-      <c r="CI40" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="CJ40" s="30"/>
-      <c r="CK40" s="30"/>
-      <c r="CL40" s="30"/>
-      <c r="CM40" s="30"/>
-      <c r="CN40" s="30"/>
-      <c r="CO40" s="30"/>
-      <c r="CP40" s="30"/>
-      <c r="CQ40" s="30"/>
-    </row>
-    <row r="41" ht="15.0" customHeight="true">
-      <c r="A41" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31"/>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31"/>
-      <c r="AC41" s="31"/>
-      <c r="AD41" s="31"/>
-      <c r="AE41" s="31"/>
-      <c r="AF41" s="31"/>
-      <c r="AG41" s="31"/>
-      <c r="AH41" s="31"/>
-      <c r="AI41" s="31"/>
-      <c r="AJ41" s="31"/>
-      <c r="AK41" s="31"/>
-      <c r="AL41" s="31"/>
-      <c r="AM41" s="31"/>
-      <c r="AN41" s="31"/>
-      <c r="AO41" s="31"/>
-      <c r="AP41" s="31"/>
-      <c r="AQ41" s="31"/>
-      <c r="AR41" s="31"/>
-      <c r="AS41" s="31"/>
-      <c r="AT41" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU41" s="31"/>
-      <c r="AV41" s="31"/>
-      <c r="AW41" s="31"/>
-      <c r="AX41" s="31"/>
-      <c r="AY41" s="31"/>
-      <c r="AZ41" s="31"/>
-      <c r="BA41" s="31"/>
-      <c r="BB41" s="31"/>
-      <c r="BC41" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD41" s="31"/>
-      <c r="BE41" s="31"/>
-      <c r="BF41" s="31"/>
-      <c r="BG41" s="31"/>
-      <c r="BH41" s="31"/>
-      <c r="BI41" s="31"/>
-      <c r="BJ41" s="31"/>
-      <c r="BK41" s="31"/>
-      <c r="BL41" s="31"/>
-      <c r="BM41" s="31"/>
-      <c r="BN41" s="31"/>
-      <c r="BO41" s="31"/>
-      <c r="BP41" s="31"/>
-      <c r="BQ41" s="31"/>
-      <c r="BR41" s="31"/>
-      <c r="BS41" s="31"/>
-      <c r="BT41" s="31"/>
-      <c r="BU41" s="31"/>
-      <c r="BV41" s="31"/>
-      <c r="BW41" s="31"/>
-      <c r="BX41" s="31"/>
-      <c r="BY41" s="31"/>
-      <c r="BZ41" s="31"/>
-      <c r="CA41" s="31"/>
-      <c r="CB41" s="31"/>
-      <c r="CC41" s="31"/>
-      <c r="CD41" s="31"/>
-      <c r="CE41" s="31"/>
-      <c r="CF41" s="31"/>
-      <c r="CG41" s="31"/>
-      <c r="CH41" s="31"/>
-      <c r="CI41" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="CJ41" s="31"/>
-      <c r="CK41" s="31"/>
-      <c r="CL41" s="31"/>
-      <c r="CM41" s="31"/>
-      <c r="CN41" s="31"/>
-      <c r="CO41" s="31"/>
-      <c r="CP41" s="31"/>
-      <c r="CQ41" s="31"/>
-    </row>
-    <row r="42" ht="15.0" customHeight="true">
-      <c r="A42" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="32"/>
-      <c r="Z42" s="32"/>
-      <c r="AA42" s="32"/>
-      <c r="AB42" s="32"/>
-      <c r="AC42" s="32"/>
-      <c r="AD42" s="32"/>
-      <c r="AE42" s="32"/>
-      <c r="AF42" s="32"/>
-      <c r="AG42" s="32"/>
-      <c r="AH42" s="32"/>
-      <c r="AI42" s="32"/>
-      <c r="AJ42" s="32"/>
-      <c r="AK42" s="32"/>
-      <c r="AL42" s="32"/>
-      <c r="AM42" s="32"/>
-      <c r="AN42" s="32"/>
-      <c r="AO42" s="32"/>
-      <c r="AP42" s="32"/>
-      <c r="AQ42" s="32"/>
-      <c r="AR42" s="32"/>
-      <c r="AS42" s="32"/>
-      <c r="AT42" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU42" s="32"/>
-      <c r="AV42" s="32"/>
-      <c r="AW42" s="32"/>
-      <c r="AX42" s="32"/>
-      <c r="AY42" s="32"/>
-      <c r="AZ42" s="32"/>
-      <c r="BA42" s="32"/>
-      <c r="BB42" s="32"/>
-      <c r="BC42" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD42" s="32"/>
-      <c r="BE42" s="32"/>
-      <c r="BF42" s="32"/>
-      <c r="BG42" s="32"/>
-      <c r="BH42" s="32"/>
-      <c r="BI42" s="32"/>
-      <c r="BJ42" s="32"/>
-      <c r="BK42" s="32"/>
-      <c r="BL42" s="32"/>
-      <c r="BM42" s="32"/>
-      <c r="BN42" s="32"/>
-      <c r="BO42" s="32"/>
-      <c r="BP42" s="32"/>
-      <c r="BQ42" s="32"/>
-      <c r="BR42" s="32"/>
-      <c r="BS42" s="32"/>
-      <c r="BT42" s="32"/>
-      <c r="BU42" s="32"/>
-      <c r="BV42" s="32"/>
-      <c r="BW42" s="32"/>
-      <c r="BX42" s="32"/>
-      <c r="BY42" s="32"/>
-      <c r="BZ42" s="32"/>
-      <c r="CA42" s="32"/>
-      <c r="CB42" s="32"/>
-      <c r="CC42" s="32"/>
-      <c r="CD42" s="32"/>
-      <c r="CE42" s="32"/>
-      <c r="CF42" s="32"/>
-      <c r="CG42" s="32"/>
-      <c r="CH42" s="32"/>
-      <c r="CI42" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="CJ42" s="32"/>
-      <c r="CK42" s="32"/>
-      <c r="CL42" s="32"/>
-      <c r="CM42" s="32"/>
-      <c r="CN42" s="32"/>
-      <c r="CO42" s="32"/>
-      <c r="CP42" s="32"/>
-      <c r="CQ42" s="32"/>
-    </row>
-    <row r="43" ht="15.0" customHeight="true">
-      <c r="A43" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="33"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="33"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="33"/>
-      <c r="AC43" s="33"/>
-      <c r="AD43" s="33"/>
-      <c r="AE43" s="33"/>
-      <c r="AF43" s="33"/>
-      <c r="AG43" s="33"/>
-      <c r="AH43" s="33"/>
-      <c r="AI43" s="33"/>
-      <c r="AJ43" s="33"/>
-      <c r="AK43" s="33"/>
-      <c r="AL43" s="33"/>
-      <c r="AM43" s="33"/>
-      <c r="AN43" s="33"/>
-      <c r="AO43" s="33"/>
-      <c r="AP43" s="33"/>
-      <c r="AQ43" s="33"/>
-      <c r="AR43" s="33"/>
-      <c r="AS43" s="33"/>
-      <c r="AT43" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU43" s="33"/>
-      <c r="AV43" s="33"/>
-      <c r="AW43" s="33"/>
-      <c r="AX43" s="33"/>
-      <c r="AY43" s="33"/>
-      <c r="AZ43" s="33"/>
-      <c r="BA43" s="33"/>
-      <c r="BB43" s="33"/>
-      <c r="BC43" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD43" s="33"/>
-      <c r="BE43" s="33"/>
-      <c r="BF43" s="33"/>
-      <c r="BG43" s="33"/>
-      <c r="BH43" s="33"/>
-      <c r="BI43" s="33"/>
-      <c r="BJ43" s="33"/>
-      <c r="BK43" s="33"/>
-      <c r="BL43" s="33"/>
-      <c r="BM43" s="33"/>
-      <c r="BN43" s="33"/>
-      <c r="BO43" s="33"/>
-      <c r="BP43" s="33"/>
-      <c r="BQ43" s="33"/>
-      <c r="BR43" s="33"/>
-      <c r="BS43" s="33"/>
-      <c r="BT43" s="33"/>
-      <c r="BU43" s="33"/>
-      <c r="BV43" s="33"/>
-      <c r="BW43" s="33"/>
-      <c r="BX43" s="33"/>
-      <c r="BY43" s="33"/>
-      <c r="BZ43" s="33"/>
-      <c r="CA43" s="33"/>
-      <c r="CB43" s="33"/>
-      <c r="CC43" s="33"/>
-      <c r="CD43" s="33"/>
-      <c r="CE43" s="33"/>
-      <c r="CF43" s="33"/>
-      <c r="CG43" s="33"/>
-      <c r="CH43" s="33"/>
-      <c r="CI43" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="CJ43" s="33"/>
-      <c r="CK43" s="33"/>
-      <c r="CL43" s="33"/>
-      <c r="CM43" s="33"/>
-      <c r="CN43" s="33"/>
-      <c r="CO43" s="33"/>
-      <c r="CP43" s="33"/>
-      <c r="CQ43" s="33"/>
-    </row>
-    <row r="44" ht="15.0" customHeight="true">
-      <c r="A44" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="34"/>
-      <c r="AD44" s="34"/>
-      <c r="AE44" s="34"/>
-      <c r="AF44" s="34"/>
-      <c r="AG44" s="34"/>
-      <c r="AH44" s="34"/>
-      <c r="AI44" s="34"/>
-      <c r="AJ44" s="34"/>
-      <c r="AK44" s="34"/>
-      <c r="AL44" s="34"/>
-      <c r="AM44" s="34"/>
-      <c r="AN44" s="34"/>
-      <c r="AO44" s="34"/>
-      <c r="AP44" s="34"/>
-      <c r="AQ44" s="34"/>
-      <c r="AR44" s="34"/>
-      <c r="AS44" s="34"/>
-      <c r="AT44" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU44" s="34"/>
-      <c r="AV44" s="34"/>
-      <c r="AW44" s="34"/>
-      <c r="AX44" s="34"/>
-      <c r="AY44" s="34"/>
-      <c r="AZ44" s="34"/>
-      <c r="BA44" s="34"/>
-      <c r="BB44" s="34"/>
-      <c r="BC44" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD44" s="34"/>
-      <c r="BE44" s="34"/>
-      <c r="BF44" s="34"/>
-      <c r="BG44" s="34"/>
-      <c r="BH44" s="34"/>
-      <c r="BI44" s="34"/>
-      <c r="BJ44" s="34"/>
-      <c r="BK44" s="34"/>
-      <c r="BL44" s="34"/>
-      <c r="BM44" s="34"/>
-      <c r="BN44" s="34"/>
-      <c r="BO44" s="34"/>
-      <c r="BP44" s="34"/>
-      <c r="BQ44" s="34"/>
-      <c r="BR44" s="34"/>
-      <c r="BS44" s="34"/>
-      <c r="BT44" s="34"/>
-      <c r="BU44" s="34"/>
-      <c r="BV44" s="34"/>
-      <c r="BW44" s="34"/>
-      <c r="BX44" s="34"/>
-      <c r="BY44" s="34"/>
-      <c r="BZ44" s="34"/>
-      <c r="CA44" s="34"/>
-      <c r="CB44" s="34"/>
-      <c r="CC44" s="34"/>
-      <c r="CD44" s="34"/>
-      <c r="CE44" s="34"/>
-      <c r="CF44" s="34"/>
-      <c r="CG44" s="34"/>
-      <c r="CH44" s="34"/>
-      <c r="CI44" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="CJ44" s="34"/>
-      <c r="CK44" s="34"/>
-      <c r="CL44" s="34"/>
-      <c r="CM44" s="34"/>
-      <c r="CN44" s="34"/>
-      <c r="CO44" s="34"/>
-      <c r="CP44" s="34"/>
-      <c r="CQ44" s="34"/>
-    </row>
-    <row r="45" ht="15.0" customHeight="true">
-      <c r="A45" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="35"/>
-      <c r="Y45" s="35"/>
-      <c r="Z45" s="35"/>
-      <c r="AA45" s="35"/>
-      <c r="AB45" s="35"/>
-      <c r="AC45" s="35"/>
-      <c r="AD45" s="35"/>
-      <c r="AE45" s="35"/>
-      <c r="AF45" s="35"/>
-      <c r="AG45" s="35"/>
-      <c r="AH45" s="35"/>
-      <c r="AI45" s="35"/>
-      <c r="AJ45" s="35"/>
-      <c r="AK45" s="35"/>
-      <c r="AL45" s="35"/>
-      <c r="AM45" s="35"/>
-      <c r="AN45" s="35"/>
-      <c r="AO45" s="35"/>
-      <c r="AP45" s="35"/>
-      <c r="AQ45" s="35"/>
-      <c r="AR45" s="35"/>
-      <c r="AS45" s="35"/>
-      <c r="AT45" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU45" s="35"/>
-      <c r="AV45" s="35"/>
-      <c r="AW45" s="35"/>
-      <c r="AX45" s="35"/>
-      <c r="AY45" s="35"/>
-      <c r="AZ45" s="35"/>
-      <c r="BA45" s="35"/>
-      <c r="BB45" s="35"/>
-      <c r="BC45" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD45" s="35"/>
-      <c r="BE45" s="35"/>
-      <c r="BF45" s="35"/>
-      <c r="BG45" s="35"/>
-      <c r="BH45" s="35"/>
-      <c r="BI45" s="35"/>
-      <c r="BJ45" s="35"/>
-      <c r="BK45" s="35"/>
-      <c r="BL45" s="35"/>
-      <c r="BM45" s="35"/>
-      <c r="BN45" s="35"/>
-      <c r="BO45" s="35"/>
-      <c r="BP45" s="35"/>
-      <c r="BQ45" s="35"/>
-      <c r="BR45" s="35"/>
-      <c r="BS45" s="35"/>
-      <c r="BT45" s="35"/>
-      <c r="BU45" s="35"/>
-      <c r="BV45" s="35"/>
-      <c r="BW45" s="35"/>
-      <c r="BX45" s="35"/>
-      <c r="BY45" s="35"/>
-      <c r="BZ45" s="35"/>
-      <c r="CA45" s="35"/>
-      <c r="CB45" s="35"/>
-      <c r="CC45" s="35"/>
-      <c r="CD45" s="35"/>
-      <c r="CE45" s="35"/>
-      <c r="CF45" s="35"/>
-      <c r="CG45" s="35"/>
-      <c r="CH45" s="35"/>
-      <c r="CI45" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="CJ45" s="35"/>
-      <c r="CK45" s="35"/>
-      <c r="CL45" s="35"/>
-      <c r="CM45" s="35"/>
-      <c r="CN45" s="35"/>
-      <c r="CO45" s="35"/>
-      <c r="CP45" s="35"/>
-      <c r="CQ45" s="35"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="36"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46"/>
-      <c r="X46"/>
-      <c r="Y46"/>
-      <c r="Z46"/>
-      <c r="AA46"/>
-      <c r="AB46"/>
-      <c r="AC46"/>
-      <c r="AD46"/>
-      <c r="AE46"/>
-      <c r="AF46"/>
-      <c r="AG46"/>
-      <c r="AH46"/>
-      <c r="AI46"/>
-      <c r="AJ46"/>
-      <c r="AK46"/>
-      <c r="AL46"/>
-      <c r="AM46"/>
-      <c r="AN46"/>
-      <c r="AO46"/>
-      <c r="AP46"/>
-      <c r="AQ46"/>
-      <c r="AR46"/>
-      <c r="AS46"/>
-      <c r="AT46"/>
-      <c r="AU46"/>
-      <c r="AV46"/>
-      <c r="AW46"/>
-      <c r="AX46"/>
-      <c r="AY46"/>
-      <c r="AZ46"/>
-      <c r="BA46"/>
-      <c r="BB46"/>
-      <c r="BC46"/>
-      <c r="BD46"/>
-      <c r="BE46"/>
-      <c r="BF46"/>
-      <c r="BG46"/>
-      <c r="BH46"/>
-      <c r="BI46"/>
-      <c r="BJ46"/>
-      <c r="BK46"/>
-      <c r="BL46"/>
-      <c r="BM46"/>
-      <c r="BN46"/>
-      <c r="BO46"/>
-      <c r="BP46"/>
-      <c r="BQ46"/>
-      <c r="BR46"/>
-      <c r="BS46"/>
-      <c r="BT46"/>
-      <c r="BU46"/>
-      <c r="BV46"/>
-      <c r="BW46"/>
-      <c r="BX46"/>
-      <c r="BY46"/>
-      <c r="BZ46"/>
-      <c r="CA46"/>
-      <c r="CB46"/>
-      <c r="CC46"/>
-      <c r="CD46"/>
-      <c r="CE46"/>
-      <c r="CF46"/>
-      <c r="CG46"/>
-      <c r="CH46"/>
-      <c r="CI46"/>
-      <c r="CJ46"/>
-      <c r="CK46"/>
-      <c r="CL46"/>
-      <c r="CM46"/>
-      <c r="CN46"/>
-      <c r="CO46"/>
-      <c r="CP46"/>
-      <c r="CQ46"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="37"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="U47"/>
-      <c r="V47"/>
-      <c r="W47"/>
-      <c r="X47"/>
-      <c r="Y47"/>
-      <c r="Z47"/>
-      <c r="AA47"/>
-      <c r="AB47"/>
-      <c r="AC47"/>
-      <c r="AD47"/>
-      <c r="AE47"/>
-      <c r="AF47"/>
-      <c r="AG47"/>
-      <c r="AH47"/>
-      <c r="AI47"/>
-      <c r="AJ47"/>
-      <c r="AK47"/>
-      <c r="AL47"/>
-      <c r="AM47"/>
-      <c r="AN47"/>
-      <c r="AO47"/>
-      <c r="AP47"/>
-      <c r="AQ47"/>
-      <c r="AR47"/>
-      <c r="AS47"/>
-      <c r="AT47"/>
-      <c r="AU47"/>
-      <c r="AV47"/>
-      <c r="AW47"/>
-      <c r="AX47"/>
-      <c r="AY47"/>
-      <c r="AZ47"/>
-      <c r="BA47"/>
-      <c r="BB47"/>
-      <c r="BC47"/>
-      <c r="BD47"/>
-      <c r="BE47"/>
-      <c r="BF47"/>
-      <c r="BG47"/>
-      <c r="BH47"/>
-      <c r="BI47"/>
-      <c r="BJ47"/>
-      <c r="BK47"/>
-      <c r="BL47"/>
-      <c r="BM47"/>
-      <c r="BN47"/>
-      <c r="BO47"/>
-      <c r="BP47"/>
-      <c r="BQ47"/>
-      <c r="BR47"/>
-      <c r="BS47"/>
-      <c r="BT47"/>
-      <c r="BU47"/>
-      <c r="BV47"/>
-      <c r="BW47"/>
-      <c r="BX47"/>
-      <c r="BY47"/>
-      <c r="BZ47"/>
-      <c r="CA47"/>
-      <c r="CB47"/>
-      <c r="CC47"/>
-      <c r="CD47"/>
-      <c r="CE47"/>
-      <c r="CF47"/>
-      <c r="CG47"/>
-      <c r="CH47"/>
-      <c r="CI47"/>
-      <c r="CJ47"/>
-      <c r="CK47"/>
-      <c r="CL47"/>
-      <c r="CM47"/>
-      <c r="CN47"/>
-      <c r="CO47"/>
-      <c r="CP47"/>
-      <c r="CQ47"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="38">
-        <v>57</v>
-      </c>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48"/>
-      <c r="T48"/>
-      <c r="U48"/>
-      <c r="V48"/>
-      <c r="W48"/>
-      <c r="X48"/>
-      <c r="Y48"/>
-      <c r="Z48"/>
-      <c r="AA48"/>
-      <c r="AB48"/>
-      <c r="AC48"/>
-      <c r="AD48"/>
-      <c r="AE48"/>
-      <c r="AF48"/>
-      <c r="AG48"/>
-      <c r="AH48"/>
-      <c r="AI48"/>
-      <c r="AJ48"/>
-      <c r="AK48"/>
-      <c r="AL48"/>
-      <c r="AM48"/>
-      <c r="AN48"/>
-      <c r="AO48"/>
-      <c r="AP48"/>
-      <c r="AQ48"/>
-      <c r="AR48"/>
-      <c r="AS48"/>
-      <c r="AT48"/>
-      <c r="AU48"/>
-      <c r="AV48"/>
-      <c r="AW48"/>
-      <c r="AX48"/>
-      <c r="AY48"/>
-      <c r="AZ48"/>
-      <c r="BA48"/>
-      <c r="BB48"/>
-      <c r="BC48"/>
-      <c r="BD48"/>
-      <c r="BE48"/>
-      <c r="BF48"/>
-      <c r="BG48"/>
-      <c r="BH48"/>
-      <c r="BI48"/>
-      <c r="BJ48"/>
-      <c r="BK48"/>
-      <c r="BL48"/>
-      <c r="BM48"/>
-      <c r="BN48"/>
-      <c r="BO48"/>
-      <c r="BP48"/>
-      <c r="BQ48"/>
-      <c r="BR48"/>
-      <c r="BS48"/>
-      <c r="BT48"/>
-      <c r="BU48"/>
-      <c r="BV48"/>
-      <c r="BW48"/>
-      <c r="BX48"/>
-      <c r="BY48"/>
-      <c r="BZ48"/>
-      <c r="CA48"/>
-      <c r="CB48"/>
-      <c r="CC48"/>
-      <c r="CD48"/>
-      <c r="CE48"/>
-      <c r="CF48"/>
-      <c r="CG48"/>
-      <c r="CH48"/>
-      <c r="CI48"/>
-      <c r="CJ48"/>
-      <c r="CK48"/>
-      <c r="CL48"/>
-      <c r="CM48"/>
-      <c r="CN48"/>
-      <c r="CO48"/>
-      <c r="CP48"/>
-      <c r="CQ48"/>
-    </row>
-    <row r="49" ht="75.0" customHeight="true">
-      <c r="A49" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39"/>
-      <c r="Z49" s="39"/>
-      <c r="AA49" s="39"/>
-      <c r="AB49" s="39"/>
-      <c r="AC49" s="39"/>
-      <c r="AD49" s="39"/>
-      <c r="AE49" s="39"/>
-      <c r="AF49" s="39"/>
-      <c r="AG49" s="39"/>
-      <c r="AH49" s="39"/>
-      <c r="AI49" s="39"/>
-      <c r="AJ49" s="39"/>
-      <c r="AK49" s="39"/>
-      <c r="AL49" s="39"/>
-      <c r="AM49" s="39"/>
-      <c r="AN49" s="39"/>
-      <c r="AO49" s="39"/>
-      <c r="AP49" s="39"/>
-      <c r="AQ49" s="39"/>
-      <c r="AR49" s="39"/>
-      <c r="AS49" s="39"/>
-      <c r="AT49" s="39"/>
-      <c r="AU49" s="39"/>
-      <c r="AV49" s="39"/>
-      <c r="AW49" s="39"/>
-      <c r="AX49" s="39"/>
-      <c r="AY49" s="39"/>
-      <c r="AZ49" s="39"/>
-      <c r="BA49" s="39"/>
-      <c r="BB49" s="39"/>
-      <c r="BC49" s="39"/>
-      <c r="BD49" s="39"/>
-      <c r="BE49" s="39"/>
-      <c r="BF49" s="39"/>
-      <c r="BG49" s="39"/>
-      <c r="BH49" s="39"/>
-      <c r="BI49" s="39"/>
-      <c r="BJ49" s="39"/>
-      <c r="BK49" s="39"/>
-      <c r="BL49" s="39"/>
-      <c r="BM49" s="39"/>
-      <c r="BN49" s="39"/>
-      <c r="BO49" s="39"/>
-      <c r="BP49" s="39"/>
-      <c r="BQ49" s="39"/>
-      <c r="BR49" s="39"/>
-      <c r="BS49" s="39"/>
-      <c r="BT49" s="39"/>
-      <c r="BU49" s="39"/>
-      <c r="BV49" s="39"/>
-      <c r="BW49" s="39"/>
-      <c r="BX49" s="39"/>
-      <c r="BY49" s="39"/>
-      <c r="BZ49" s="39"/>
-      <c r="CA49" s="39"/>
-      <c r="CB49" s="39"/>
-      <c r="CC49" s="39"/>
-      <c r="CD49" s="39"/>
-      <c r="CE49" s="39"/>
-      <c r="CF49" s="39"/>
-      <c r="CG49" s="39"/>
-      <c r="CH49" s="39"/>
-      <c r="CI49" s="39"/>
-      <c r="CJ49" s="39"/>
-      <c r="CK49" s="39"/>
-      <c r="CL49" s="39"/>
-      <c r="CM49" s="39"/>
-      <c r="CN49" s="39"/>
-      <c r="CO49" s="39"/>
-      <c r="CP49" s="39"/>
-      <c r="CQ49" s="39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" ht="30.0" customHeight="true">
-      <c r="A50" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="40"/>
-      <c r="W50" s="40"/>
-      <c r="X50" s="40"/>
-      <c r="Y50" s="40"/>
-      <c r="Z50" s="40"/>
-      <c r="AA50" s="40"/>
-      <c r="AB50" s="40"/>
-      <c r="AC50" s="40"/>
-      <c r="AD50" s="40"/>
-      <c r="AE50" s="40"/>
-      <c r="AF50" s="40"/>
-      <c r="AG50" s="40"/>
-      <c r="AH50" s="40"/>
-      <c r="AI50" s="40"/>
-      <c r="AJ50" s="40"/>
-      <c r="AK50" s="40"/>
-      <c r="AL50" s="40"/>
-      <c r="AM50" s="40"/>
-      <c r="AN50" s="40"/>
-      <c r="AO50" s="40"/>
-      <c r="AP50" s="40"/>
-      <c r="AQ50" s="40"/>
-      <c r="AR50" s="40"/>
-      <c r="AS50" s="40"/>
-      <c r="AT50" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="AU50" s="40"/>
-      <c r="AV50" s="40"/>
-      <c r="AW50" s="40"/>
-      <c r="AX50" s="40"/>
-      <c r="AY50" s="40"/>
-      <c r="AZ50" s="40"/>
-      <c r="BA50" s="40"/>
-      <c r="BB50" s="40"/>
-      <c r="BC50" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD50" s="40"/>
-      <c r="BE50" s="40"/>
-      <c r="BF50" s="40"/>
-      <c r="BG50" s="40"/>
-      <c r="BH50" s="40"/>
-      <c r="BI50" s="40"/>
-      <c r="BJ50" s="40"/>
-      <c r="BK50" s="40"/>
-      <c r="BL50" s="40"/>
-      <c r="BM50" s="40"/>
-      <c r="BN50" s="40"/>
-      <c r="BO50" s="40"/>
-      <c r="BP50" s="40"/>
-      <c r="BQ50" s="40"/>
-      <c r="BR50" s="40"/>
-      <c r="BS50" s="40"/>
-      <c r="BT50" s="40"/>
-      <c r="BU50" s="40"/>
-      <c r="BV50" s="40"/>
-      <c r="BW50" s="40"/>
-      <c r="BX50" s="40"/>
-      <c r="BY50" s="40"/>
-      <c r="BZ50" s="40"/>
-      <c r="CA50" s="40"/>
-      <c r="CB50" s="40"/>
-      <c r="CC50" s="40"/>
-      <c r="CD50" s="40"/>
-      <c r="CE50" s="40"/>
-      <c r="CF50" s="40"/>
-      <c r="CG50" s="40"/>
-      <c r="CH50" s="40"/>
-      <c r="CI50" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="CJ50" s="40"/>
-      <c r="CK50" s="40"/>
-      <c r="CL50" s="40"/>
-      <c r="CM50" s="40"/>
-      <c r="CN50" s="40"/>
-      <c r="CO50" s="40"/>
-      <c r="CP50" s="40"/>
-      <c r="CQ50" s="40"/>
-    </row>
-    <row r="51" ht="15.0" customHeight="true">
-      <c r="A51" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="41"/>
-      <c r="V51" s="41"/>
-      <c r="W51" s="41"/>
-      <c r="X51" s="41"/>
-      <c r="Y51" s="41"/>
-      <c r="Z51" s="41"/>
-      <c r="AA51" s="41"/>
-      <c r="AB51" s="41"/>
-      <c r="AC51" s="41"/>
-      <c r="AD51" s="41"/>
-      <c r="AE51" s="41"/>
-      <c r="AF51" s="41"/>
-      <c r="AG51" s="41"/>
-      <c r="AH51" s="41"/>
-      <c r="AI51" s="41"/>
-      <c r="AJ51" s="41"/>
-      <c r="AK51" s="41"/>
-      <c r="AL51" s="41"/>
-      <c r="AM51" s="41"/>
-      <c r="AN51" s="41"/>
-      <c r="AO51" s="41"/>
-      <c r="AP51" s="41"/>
-      <c r="AQ51" s="41"/>
-      <c r="AR51" s="41"/>
-      <c r="AS51" s="41"/>
-      <c r="AT51" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU51" s="41"/>
-      <c r="AV51" s="41"/>
-      <c r="AW51" s="41"/>
-      <c r="AX51" s="41"/>
-      <c r="AY51" s="41"/>
-      <c r="AZ51" s="41"/>
-      <c r="BA51" s="41"/>
-      <c r="BB51" s="41"/>
-      <c r="BC51" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD51" s="41"/>
-      <c r="BE51" s="41"/>
-      <c r="BF51" s="41"/>
-      <c r="BG51" s="41"/>
-      <c r="BH51" s="41"/>
-      <c r="BI51" s="41"/>
-      <c r="BJ51" s="41"/>
-      <c r="BK51" s="41"/>
-      <c r="BL51" s="41"/>
-      <c r="BM51" s="41"/>
-      <c r="BN51" s="41"/>
-      <c r="BO51" s="41"/>
-      <c r="BP51" s="41"/>
-      <c r="BQ51" s="41"/>
-      <c r="BR51" s="41"/>
-      <c r="BS51" s="41"/>
-      <c r="BT51" s="41"/>
-      <c r="BU51" s="41"/>
-      <c r="BV51" s="41"/>
-      <c r="BW51" s="41"/>
-      <c r="BX51" s="41"/>
-      <c r="BY51" s="41"/>
-      <c r="BZ51" s="41"/>
-      <c r="CA51" s="41"/>
-      <c r="CB51" s="41"/>
-      <c r="CC51" s="41"/>
-      <c r="CD51" s="41"/>
-      <c r="CE51" s="41"/>
-      <c r="CF51" s="41"/>
-      <c r="CG51" s="41"/>
-      <c r="CH51" s="41"/>
-      <c r="CI51" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="CJ51" s="41"/>
-      <c r="CK51" s="41"/>
-      <c r="CL51" s="41"/>
-      <c r="CM51" s="41"/>
-      <c r="CN51" s="41"/>
-      <c r="CO51" s="41"/>
-      <c r="CP51" s="41"/>
-      <c r="CQ51" s="41"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="42"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52"/>
-      <c r="V52"/>
-      <c r="W52"/>
-      <c r="X52"/>
-      <c r="Y52"/>
-      <c r="Z52"/>
-      <c r="AA52"/>
-      <c r="AB52"/>
-      <c r="AC52"/>
-      <c r="AD52"/>
-      <c r="AE52"/>
-      <c r="AF52"/>
-      <c r="AG52"/>
-      <c r="AH52"/>
-      <c r="AI52"/>
-      <c r="AJ52"/>
-      <c r="AK52"/>
-      <c r="AL52"/>
-      <c r="AM52"/>
-      <c r="AN52"/>
-      <c r="AO52"/>
-      <c r="AP52"/>
-      <c r="AQ52"/>
-      <c r="AR52"/>
-      <c r="AS52"/>
-      <c r="AT52"/>
-      <c r="AU52"/>
-      <c r="AV52"/>
-      <c r="AW52"/>
-      <c r="AX52"/>
-      <c r="AY52"/>
-      <c r="AZ52"/>
-      <c r="BA52"/>
-      <c r="BB52"/>
-      <c r="BC52"/>
-      <c r="BD52"/>
-      <c r="BE52"/>
-      <c r="BF52"/>
-      <c r="BG52"/>
-      <c r="BH52"/>
-      <c r="BI52"/>
-      <c r="BJ52"/>
-      <c r="BK52"/>
-      <c r="BL52"/>
-      <c r="BM52"/>
-      <c r="BN52"/>
-      <c r="BO52"/>
-      <c r="BP52"/>
-      <c r="BQ52"/>
-      <c r="BR52"/>
-      <c r="BS52"/>
-      <c r="BT52"/>
-      <c r="BU52"/>
-      <c r="BV52"/>
-      <c r="BW52"/>
-      <c r="BX52"/>
-      <c r="BY52"/>
-      <c r="BZ52"/>
-      <c r="CA52"/>
-      <c r="CB52"/>
-      <c r="CC52"/>
-      <c r="CD52"/>
-      <c r="CE52"/>
-      <c r="CF52"/>
-      <c r="CG52"/>
-      <c r="CH52"/>
-      <c r="CI52"/>
-      <c r="CJ52"/>
-      <c r="CK52"/>
-      <c r="CL52"/>
-      <c r="CM52"/>
-      <c r="CN52"/>
-      <c r="CO52"/>
-      <c r="CP52"/>
-      <c r="CQ52"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="43"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
-      <c r="O53"/>
-      <c r="P53"/>
-      <c r="Q53"/>
-      <c r="R53"/>
-      <c r="S53"/>
-      <c r="T53"/>
-      <c r="U53"/>
-      <c r="V53"/>
-      <c r="W53"/>
-      <c r="X53"/>
-      <c r="Y53"/>
-      <c r="Z53"/>
-      <c r="AA53"/>
-      <c r="AB53"/>
-      <c r="AC53"/>
-      <c r="AD53"/>
-      <c r="AE53"/>
-      <c r="AF53"/>
-      <c r="AG53"/>
-      <c r="AH53"/>
-      <c r="AI53"/>
-      <c r="AJ53"/>
-      <c r="AK53"/>
-      <c r="AL53"/>
-      <c r="AM53"/>
-      <c r="AN53"/>
-      <c r="AO53"/>
-      <c r="AP53"/>
-      <c r="AQ53"/>
-      <c r="AR53"/>
-      <c r="AS53"/>
-      <c r="AT53"/>
-      <c r="AU53"/>
-      <c r="AV53"/>
-      <c r="AW53"/>
-      <c r="AX53"/>
-      <c r="AY53"/>
-      <c r="AZ53"/>
-      <c r="BA53"/>
-      <c r="BB53"/>
-      <c r="BC53"/>
-      <c r="BD53"/>
-      <c r="BE53"/>
-      <c r="BF53"/>
-      <c r="BG53"/>
-      <c r="BH53"/>
-      <c r="BI53"/>
-      <c r="BJ53"/>
-      <c r="BK53"/>
-      <c r="BL53"/>
-      <c r="BM53"/>
-      <c r="BN53"/>
-      <c r="BO53"/>
-      <c r="BP53"/>
-      <c r="BQ53"/>
-      <c r="BR53"/>
-      <c r="BS53"/>
-      <c r="BT53"/>
-      <c r="BU53"/>
-      <c r="BV53"/>
-      <c r="BW53"/>
-      <c r="BX53"/>
-      <c r="BY53"/>
-      <c r="BZ53"/>
-      <c r="CA53"/>
-      <c r="CB53"/>
-      <c r="CC53"/>
-      <c r="CD53"/>
-      <c r="CE53"/>
-      <c r="CF53"/>
-      <c r="CG53"/>
-      <c r="CH53"/>
-      <c r="CI53"/>
-      <c r="CJ53"/>
-      <c r="CK53"/>
-      <c r="CL53"/>
-      <c r="CM53"/>
-      <c r="CN53"/>
-      <c r="CO53"/>
-      <c r="CP53"/>
-      <c r="CQ53"/>
-    </row>
-    <row r="54">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
-      <c r="U54"/>
-      <c r="V54"/>
-      <c r="W54"/>
-      <c r="X54"/>
-      <c r="Y54"/>
-      <c r="Z54"/>
-      <c r="AA54"/>
-      <c r="AB54"/>
-      <c r="AC54"/>
-      <c r="AD54"/>
-      <c r="AE54"/>
-      <c r="AF54"/>
-      <c r="AG54"/>
-      <c r="AH54"/>
-      <c r="AI54"/>
-      <c r="AJ54"/>
-      <c r="AK54"/>
-      <c r="AL54"/>
-      <c r="AM54"/>
-      <c r="AN54"/>
-      <c r="AO54"/>
-      <c r="AP54"/>
-      <c r="AQ54"/>
-      <c r="AR54"/>
-      <c r="AS54"/>
-      <c r="AT54"/>
-      <c r="AU54"/>
-      <c r="AV54"/>
-      <c r="AW54"/>
-      <c r="AX54"/>
-      <c r="AY54"/>
-      <c r="AZ54"/>
-      <c r="BA54"/>
-      <c r="BB54"/>
-      <c r="BC54"/>
-      <c r="BD54"/>
-      <c r="BE54"/>
-      <c r="BF54"/>
-      <c r="BG54"/>
-      <c r="BH54"/>
-      <c r="BI54"/>
-      <c r="BJ54"/>
-      <c r="BK54"/>
-      <c r="BL54"/>
-      <c r="BM54"/>
-      <c r="BN54"/>
-      <c r="BO54"/>
-      <c r="BP54"/>
-      <c r="BQ54"/>
-      <c r="BR54"/>
-      <c r="BS54"/>
-      <c r="BT54"/>
-      <c r="BU54"/>
-      <c r="BV54"/>
-      <c r="BW54"/>
-      <c r="BX54"/>
-      <c r="BY54"/>
-      <c r="BZ54"/>
-      <c r="CA54"/>
-      <c r="CB54"/>
-      <c r="CC54"/>
-      <c r="CD54"/>
-      <c r="CE54"/>
-      <c r="CF54"/>
-      <c r="CG54"/>
-      <c r="CH54"/>
-      <c r="CI54"/>
-      <c r="CJ54"/>
-      <c r="CK54"/>
-      <c r="CL54"/>
-      <c r="CM54"/>
-      <c r="CN54"/>
-      <c r="CO54"/>
-      <c r="CP54"/>
-      <c r="CQ54"/>
+    <row r="37">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37"/>
+      <c r="AQ37"/>
+      <c r="AR37"/>
+      <c r="AS37"/>
+      <c r="AT37"/>
+      <c r="AU37"/>
+      <c r="AV37"/>
+      <c r="AW37"/>
+      <c r="AX37"/>
+      <c r="AY37"/>
+      <c r="AZ37"/>
+      <c r="BA37"/>
+      <c r="BB37"/>
+      <c r="BC37"/>
+      <c r="BD37"/>
+      <c r="BE37"/>
+      <c r="BF37"/>
+      <c r="BG37"/>
+      <c r="BH37"/>
+      <c r="BI37"/>
+      <c r="BJ37"/>
+      <c r="BK37"/>
+      <c r="BL37"/>
+      <c r="BM37"/>
+      <c r="BN37"/>
+      <c r="BO37"/>
+      <c r="BP37"/>
+      <c r="BQ37"/>
+      <c r="BR37"/>
+      <c r="BS37"/>
+      <c r="BT37"/>
+      <c r="BU37"/>
+      <c r="BV37"/>
+      <c r="BW37"/>
+      <c r="BX37"/>
+      <c r="BY37"/>
+      <c r="BZ37"/>
+      <c r="CA37"/>
+      <c r="CB37"/>
+      <c r="CC37"/>
+      <c r="CD37"/>
+      <c r="CE37"/>
+      <c r="CF37"/>
+      <c r="CG37"/>
+      <c r="CH37"/>
+      <c r="CI37"/>
+      <c r="CJ37"/>
+      <c r="CK37"/>
+      <c r="CL37"/>
+      <c r="CM37"/>
+      <c r="CN37"/>
+      <c r="CO37"/>
+      <c r="CP37"/>
+      <c r="CQ37"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="99">
     <mergeCell ref="A7:CQ7"/>
     <mergeCell ref="A8:CQ8"/>
     <mergeCell ref="A1:CQ1"/>
@@ -6574,91 +4693,8 @@
     <mergeCell ref="AT34:BB34"/>
     <mergeCell ref="BC34:CH34"/>
     <mergeCell ref="CI34:CQ34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:M35"/>
-    <mergeCell ref="N35:AS35"/>
-    <mergeCell ref="AT35:BB35"/>
-    <mergeCell ref="BC35:CH35"/>
-    <mergeCell ref="CI35:CQ35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:M36"/>
-    <mergeCell ref="N36:AS36"/>
-    <mergeCell ref="AT36:BB36"/>
-    <mergeCell ref="BC36:CH36"/>
-    <mergeCell ref="CI36:CQ36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:M37"/>
-    <mergeCell ref="N37:AS37"/>
-    <mergeCell ref="AT37:BB37"/>
-    <mergeCell ref="BC37:CH37"/>
-    <mergeCell ref="CI37:CQ37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:M38"/>
-    <mergeCell ref="N38:AS38"/>
-    <mergeCell ref="AT38:BB38"/>
-    <mergeCell ref="BC38:CH38"/>
-    <mergeCell ref="CI38:CQ38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:M39"/>
-    <mergeCell ref="N39:AS39"/>
-    <mergeCell ref="AT39:BB39"/>
-    <mergeCell ref="BC39:CH39"/>
-    <mergeCell ref="CI39:CQ39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:M40"/>
-    <mergeCell ref="N40:AS40"/>
-    <mergeCell ref="AT40:BB40"/>
-    <mergeCell ref="BC40:CH40"/>
-    <mergeCell ref="CI40:CQ40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:M41"/>
-    <mergeCell ref="N41:AS41"/>
-    <mergeCell ref="AT41:BB41"/>
-    <mergeCell ref="BC41:CH41"/>
-    <mergeCell ref="CI41:CQ41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="N42:AS42"/>
-    <mergeCell ref="AT42:BB42"/>
-    <mergeCell ref="BC42:CH42"/>
-    <mergeCell ref="CI42:CQ42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:AS43"/>
-    <mergeCell ref="AT43:BB43"/>
-    <mergeCell ref="BC43:CH43"/>
-    <mergeCell ref="CI43:CQ43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="N44:AS44"/>
-    <mergeCell ref="AT44:BB44"/>
-    <mergeCell ref="BC44:CH44"/>
-    <mergeCell ref="CI44:CQ44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:M45"/>
-    <mergeCell ref="N45:AS45"/>
-    <mergeCell ref="AT45:BB45"/>
-    <mergeCell ref="BC45:CH45"/>
-    <mergeCell ref="CI45:CQ45"/>
-    <mergeCell ref="A46:CQ46"/>
-    <mergeCell ref="A47:CQ47"/>
-    <mergeCell ref="A48:CQ48"/>
-    <mergeCell ref="A49:AW49"/>
-    <mergeCell ref="AX49:CQ49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E50:M50"/>
-    <mergeCell ref="N50:AS50"/>
-    <mergeCell ref="AT50:BB50"/>
-    <mergeCell ref="BC50:CH50"/>
-    <mergeCell ref="CI50:CQ50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="E51:M51"/>
-    <mergeCell ref="N51:AS51"/>
-    <mergeCell ref="AT51:BB51"/>
-    <mergeCell ref="BC51:CH51"/>
-    <mergeCell ref="CI51:CQ51"/>
-    <mergeCell ref="A52:CQ52"/>
-    <mergeCell ref="A53:CQ53"/>
+    <mergeCell ref="A35:CQ35"/>
+    <mergeCell ref="A36:CQ36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
